--- a/data_year/zb/就业人员和工资/按行业分城镇单位就业人员.xlsx
+++ b/data_year/zb/就业人员和工资/按行业分城镇单位就业人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1294 +538,805 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>631.1113</v>
+      </c>
+      <c r="C2" t="n">
+        <v>209.2175</v>
+      </c>
+      <c r="D2" t="n">
+        <v>185.7708</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1428.4708</v>
+      </c>
+      <c r="F2" t="n">
+        <v>375.7384</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3637.1514</v>
+      </c>
+      <c r="H2" t="n">
+        <v>632.5394</v>
+      </c>
       <c r="I2" t="n">
-        <v>11612.5</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>13051.5034</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60.2479</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1267.5144</v>
+      </c>
+      <c r="L2" t="n">
+        <v>211.6302</v>
+      </c>
+      <c r="M2" t="n">
+        <v>535.088</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1581.7543</v>
+      </c>
+      <c r="O2" t="n">
+        <v>131.3736</v>
+      </c>
+      <c r="P2" t="n">
+        <v>218.9109</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>310.5096</v>
+      </c>
+      <c r="R2" t="n">
+        <v>292.2915</v>
+      </c>
+      <c r="S2" t="n">
+        <v>310.065</v>
+      </c>
+      <c r="T2" t="n">
+        <v>562.037</v>
+      </c>
+      <c r="U2" t="n">
+        <v>470.0814</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>662.7893</v>
+      </c>
+      <c r="C3" t="n">
+        <v>242.7382</v>
+      </c>
+      <c r="D3" t="n">
+        <v>212.7591</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1467.632</v>
+      </c>
+      <c r="F3" t="n">
+        <v>359.519</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4088.3267</v>
+      </c>
+      <c r="H3" t="n">
+        <v>679.0566</v>
+      </c>
       <c r="I3" t="n">
-        <v>11165.8</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>14413.3014</v>
+      </c>
+      <c r="J3" t="n">
+        <v>59.8548</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1724.7782</v>
+      </c>
+      <c r="L3" t="n">
+        <v>248.5833</v>
+      </c>
+      <c r="M3" t="n">
+        <v>647.4884</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1617.7726</v>
+      </c>
+      <c r="O3" t="n">
+        <v>134.9854</v>
+      </c>
+      <c r="P3" t="n">
+        <v>230.3493</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>334.6917</v>
+      </c>
+      <c r="R3" t="n">
+        <v>298.4714</v>
+      </c>
+      <c r="S3" t="n">
+        <v>286.5836</v>
+      </c>
+      <c r="T3" t="n">
+        <v>611.5975</v>
+      </c>
+      <c r="U3" t="n">
+        <v>505.3243</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>667.5203</v>
+      </c>
+      <c r="C4" t="n">
+        <v>265.0548</v>
+      </c>
+      <c r="D4" t="n">
+        <v>222.7996</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1541.5126</v>
+      </c>
+      <c r="F4" t="n">
+        <v>338.8566</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4262.1887</v>
+      </c>
+      <c r="H4" t="n">
+        <v>719.2776</v>
+      </c>
       <c r="I4" t="n">
-        <v>10985.2</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>15236.3715</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62.1331</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2010.2586</v>
+      </c>
+      <c r="L4" t="n">
+        <v>273.7129</v>
+      </c>
+      <c r="M4" t="n">
+        <v>711.845</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1653.3788</v>
+      </c>
+      <c r="O4" t="n">
+        <v>137.7422</v>
+      </c>
+      <c r="P4" t="n">
+        <v>243.7831</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>344.5578</v>
+      </c>
+      <c r="R4" t="n">
+        <v>330.6752</v>
+      </c>
+      <c r="S4" t="n">
+        <v>292.285</v>
+      </c>
+      <c r="T4" t="n">
+        <v>631.0219</v>
+      </c>
+      <c r="U4" t="n">
+        <v>527.7677</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>636.5174</v>
+        <v>846.2153</v>
       </c>
       <c r="C5" t="n">
-        <v>172.1152</v>
+        <v>304.3938</v>
       </c>
       <c r="D5" t="n">
-        <v>116.8199</v>
+        <v>327.3117</v>
       </c>
       <c r="E5" t="n">
-        <v>1170.9591</v>
+        <v>1566.988</v>
       </c>
       <c r="F5" t="n">
-        <v>484.5416</v>
+        <v>294.8334</v>
       </c>
       <c r="G5" t="n">
-        <v>2980.4919</v>
+        <v>5257.9395</v>
       </c>
       <c r="H5" t="n">
-        <v>485.7919</v>
+        <v>770.0266</v>
       </c>
       <c r="I5" t="n">
-        <v>10969.6966</v>
+        <v>18108.4467</v>
       </c>
       <c r="J5" t="n">
-        <v>52.7894</v>
+        <v>72.3342</v>
       </c>
       <c r="K5" t="n">
-        <v>833.711</v>
+        <v>2921.8986</v>
       </c>
       <c r="L5" t="n">
-        <v>120.2293</v>
+        <v>373.7341</v>
       </c>
       <c r="M5" t="n">
-        <v>628.1473999999999</v>
+        <v>890.8129</v>
       </c>
       <c r="N5" t="n">
-        <v>1442.7715</v>
+        <v>1687.2273</v>
       </c>
       <c r="O5" t="n">
-        <v>127.7504</v>
+        <v>146.9503</v>
       </c>
       <c r="P5" t="n">
-        <v>172.5387</v>
+        <v>259.195</v>
       </c>
       <c r="Q5" t="n">
-        <v>297.5674</v>
+        <v>404.5408</v>
       </c>
       <c r="R5" t="n">
-        <v>221.8738</v>
+        <v>387.7646</v>
       </c>
       <c r="S5" t="n">
-        <v>183.4884</v>
+        <v>421.8913</v>
       </c>
       <c r="T5" t="n">
-        <v>488.2573</v>
+        <v>636.45</v>
       </c>
       <c r="U5" t="n">
-        <v>353.335</v>
+        <v>537.9393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>631.8493999999999</v>
+        <v>861.4299999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>177.1273</v>
+        <v>289.2857</v>
       </c>
       <c r="D6" t="n">
-        <v>123.7118</v>
+        <v>336.2732</v>
       </c>
       <c r="E6" t="n">
-        <v>1199.0351</v>
+        <v>1599.325</v>
       </c>
       <c r="F6" t="n">
-        <v>466.0662</v>
+        <v>284.5982</v>
       </c>
       <c r="G6" t="n">
-        <v>3050.8231</v>
+        <v>5243.1393</v>
       </c>
       <c r="H6" t="n">
-        <v>494.687</v>
+        <v>810.4272</v>
       </c>
       <c r="I6" t="n">
-        <v>11098.8867</v>
+        <v>18277.7776</v>
       </c>
       <c r="J6" t="n">
-        <v>54.2406</v>
+        <v>75.4145</v>
       </c>
       <c r="K6" t="n">
-        <v>841.0337</v>
+        <v>2921.1787</v>
       </c>
       <c r="L6" t="n">
-        <v>133.4288</v>
+        <v>402.2447</v>
       </c>
       <c r="M6" t="n">
-        <v>586.7311</v>
+        <v>888.569</v>
       </c>
       <c r="N6" t="n">
-        <v>1466.785</v>
+        <v>1727.326</v>
       </c>
       <c r="O6" t="n">
-        <v>123.3825</v>
+        <v>145.519</v>
       </c>
       <c r="P6" t="n">
-        <v>176.1198</v>
+        <v>269.1186</v>
       </c>
       <c r="Q6" t="n">
-        <v>300.578</v>
+        <v>403.6541</v>
       </c>
       <c r="R6" t="n">
-        <v>222.1258</v>
+        <v>408.0405</v>
       </c>
       <c r="S6" t="n">
-        <v>194.4262</v>
+        <v>449.4463</v>
       </c>
       <c r="T6" t="n">
-        <v>500.7109</v>
+        <v>596.4913</v>
       </c>
       <c r="U6" t="n">
-        <v>356.0244</v>
+        <v>566.2963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>613.8733999999999</v>
+        <v>854.3893</v>
       </c>
       <c r="C7" t="n">
-        <v>181.2498</v>
+        <v>276.1231</v>
       </c>
       <c r="D7" t="n">
-        <v>130.0994</v>
+        <v>349.8697</v>
       </c>
       <c r="E7" t="n">
-        <v>1240.8214</v>
+        <v>1637.8019</v>
       </c>
       <c r="F7" t="n">
-        <v>446.257</v>
+        <v>269.9788</v>
       </c>
       <c r="G7" t="n">
-        <v>3210.8988</v>
+        <v>5068.7033</v>
       </c>
       <c r="H7" t="n">
-        <v>508.9034</v>
+        <v>841.6482</v>
       </c>
       <c r="I7" t="n">
-        <v>11404.0343</v>
+        <v>18062.4914</v>
       </c>
       <c r="J7" t="n">
-        <v>53.9313</v>
+        <v>75.1831</v>
       </c>
       <c r="K7" t="n">
-        <v>926.5889</v>
+        <v>2795.9982</v>
       </c>
       <c r="L7" t="n">
-        <v>146.5131</v>
+        <v>417.3414</v>
       </c>
       <c r="M7" t="n">
-        <v>544.0421</v>
+        <v>883.3214</v>
       </c>
       <c r="N7" t="n">
-        <v>1483.2458</v>
+        <v>1736.468</v>
       </c>
       <c r="O7" t="n">
-        <v>122.5177</v>
+        <v>149.0884</v>
       </c>
       <c r="P7" t="n">
-        <v>180.3923</v>
+        <v>273.3293</v>
       </c>
       <c r="Q7" t="n">
-        <v>299.9465</v>
+        <v>396.0086</v>
       </c>
       <c r="R7" t="n">
-        <v>227.7311</v>
+        <v>410.5829</v>
       </c>
       <c r="S7" t="n">
-        <v>218.5369</v>
+        <v>474.0413</v>
       </c>
       <c r="T7" t="n">
-        <v>509.2003</v>
+        <v>545.7799</v>
       </c>
       <c r="U7" t="n">
-        <v>359.2851</v>
+        <v>606.8346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612.7345</v>
+        <v>849.5076</v>
       </c>
       <c r="C8" t="n">
-        <v>183.9052</v>
+        <v>269.7453</v>
       </c>
       <c r="D8" t="n">
-        <v>138.1913</v>
+        <v>364.0667</v>
       </c>
       <c r="E8" t="n">
-        <v>1265.5669</v>
+        <v>1672.5851</v>
       </c>
       <c r="F8" t="n">
-        <v>435.2472</v>
+        <v>263.2208</v>
       </c>
       <c r="G8" t="n">
-        <v>3351.6145</v>
+        <v>4893.8403</v>
       </c>
       <c r="H8" t="n">
-        <v>525.4252</v>
+        <v>866.9874</v>
       </c>
       <c r="I8" t="n">
-        <v>11713.1713</v>
+        <v>17888.0734</v>
       </c>
       <c r="J8" t="n">
-        <v>56.5556</v>
+        <v>75.37569999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>988.6725</v>
+        <v>2724.7293</v>
       </c>
       <c r="L8" t="n">
-        <v>153.9451</v>
+        <v>431.7379</v>
       </c>
       <c r="M8" t="n">
-        <v>515.7284</v>
+        <v>874.9994</v>
       </c>
       <c r="N8" t="n">
-        <v>1504.4142</v>
+        <v>1729.2418</v>
       </c>
       <c r="O8" t="n">
-        <v>122.3566</v>
+        <v>150.7728</v>
       </c>
       <c r="P8" t="n">
-        <v>187.0049</v>
+        <v>269.5962</v>
       </c>
       <c r="Q8" t="n">
-        <v>302.5425</v>
+        <v>387.6131</v>
       </c>
       <c r="R8" t="n">
-        <v>235.4549</v>
+        <v>419.5578</v>
       </c>
       <c r="S8" t="n">
-        <v>236.7468</v>
+        <v>488.4125</v>
       </c>
       <c r="T8" t="n">
-        <v>529.6735</v>
+        <v>490.9177</v>
       </c>
       <c r="U8" t="n">
-        <v>367.3915</v>
+        <v>665.1660000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>623.0512</v>
+        <v>843.8919</v>
       </c>
       <c r="C9" t="n">
-        <v>185.8073</v>
+        <v>265.9378</v>
       </c>
       <c r="D9" t="n">
-        <v>150.2277</v>
+        <v>395.3927</v>
       </c>
       <c r="E9" t="n">
-        <v>1291.2122</v>
+        <v>1725.5709</v>
       </c>
       <c r="F9" t="n">
-        <v>426.3086</v>
+        <v>255.4087</v>
       </c>
       <c r="G9" t="n">
-        <v>3465.3607</v>
+        <v>4635.4597</v>
       </c>
       <c r="H9" t="n">
-        <v>542.8019</v>
+        <v>897.9367</v>
       </c>
       <c r="I9" t="n">
-        <v>12024.4285</v>
+        <v>17643.8348</v>
       </c>
       <c r="J9" t="n">
-        <v>57.3878</v>
+        <v>78.2342</v>
       </c>
       <c r="K9" t="n">
-        <v>1050.7825</v>
+        <v>2643.2096</v>
       </c>
       <c r="L9" t="n">
-        <v>166.4653</v>
+        <v>444.7774</v>
       </c>
       <c r="M9" t="n">
-        <v>506.8584</v>
+        <v>842.7934</v>
       </c>
       <c r="N9" t="n">
-        <v>1520.9106</v>
+        <v>1730.3682</v>
       </c>
       <c r="O9" t="n">
-        <v>125.0123</v>
+        <v>152.2395</v>
       </c>
       <c r="P9" t="n">
-        <v>193.4645</v>
+        <v>268.4986</v>
       </c>
       <c r="Q9" t="n">
-        <v>303.4119</v>
+        <v>376.9568</v>
       </c>
       <c r="R9" t="n">
-        <v>243.3867</v>
+        <v>420.4109</v>
       </c>
       <c r="S9" t="n">
-        <v>247.2289</v>
+        <v>522.5646</v>
       </c>
       <c r="T9" t="n">
-        <v>535.0372</v>
+        <v>455.3768</v>
       </c>
       <c r="U9" t="n">
-        <v>389.7128</v>
+        <v>688.8064000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.2575000000001</v>
+        <v>819.0015</v>
       </c>
       <c r="C10" t="n">
-        <v>193.2473</v>
+        <v>269.8464</v>
       </c>
       <c r="D10" t="n">
-        <v>159.4985</v>
+        <v>424.2577</v>
       </c>
       <c r="E10" t="n">
-        <v>1334.9919</v>
+        <v>1817.4633</v>
       </c>
       <c r="F10" t="n">
-        <v>410.0886</v>
+        <v>192.617</v>
       </c>
       <c r="G10" t="n">
-        <v>3434.2617</v>
+        <v>4178.3095</v>
       </c>
       <c r="H10" t="n">
-        <v>563.6075</v>
+        <v>912.3741</v>
       </c>
       <c r="I10" t="n">
-        <v>12192.5243</v>
+        <v>17258.1976</v>
       </c>
       <c r="J10" t="n">
-        <v>56.5306</v>
+        <v>77.4059</v>
       </c>
       <c r="K10" t="n">
-        <v>1072.5783</v>
+        <v>2710.8716</v>
       </c>
       <c r="L10" t="n">
-        <v>172.678</v>
+        <v>466.0072</v>
       </c>
       <c r="M10" t="n">
-        <v>514.353</v>
+        <v>823.2771</v>
       </c>
       <c r="N10" t="n">
-        <v>1533.9899</v>
+        <v>1735.5819</v>
       </c>
       <c r="O10" t="n">
-        <v>125.9592</v>
+        <v>146.5829</v>
       </c>
       <c r="P10" t="n">
-        <v>197.2912</v>
+        <v>260.6323</v>
       </c>
       <c r="Q10" t="n">
-        <v>306.5086</v>
+        <v>369.1863</v>
       </c>
       <c r="R10" t="n">
-        <v>257.0449</v>
+        <v>411.5301</v>
       </c>
       <c r="S10" t="n">
-        <v>274.6931</v>
+        <v>529.5228</v>
       </c>
       <c r="T10" t="n">
-        <v>540.3942</v>
+        <v>414.4315</v>
       </c>
       <c r="U10" t="n">
-        <v>417.5503</v>
+        <v>699.2985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>634.3697</v>
+        <v>815.4941</v>
       </c>
       <c r="C11" t="n">
-        <v>202.1188</v>
+        <v>265.2268</v>
       </c>
       <c r="D11" t="n">
-        <v>173.8119</v>
+        <v>455.2578</v>
       </c>
       <c r="E11" t="n">
-        <v>1394.2983</v>
+        <v>1989.8185</v>
       </c>
       <c r="F11" t="n">
-        <v>373.6812</v>
+        <v>134.0931</v>
       </c>
       <c r="G11" t="n">
-        <v>3491.8986</v>
+        <v>3832.0304</v>
       </c>
       <c r="H11" t="n">
-        <v>595.7664</v>
+        <v>1006.2298</v>
       </c>
       <c r="I11" t="n">
-        <v>12573.035</v>
+        <v>17161.7786</v>
       </c>
       <c r="J11" t="n">
-        <v>58.822</v>
+        <v>86.32389999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>1177.4855</v>
+        <v>2270.4989</v>
       </c>
       <c r="L11" t="n">
-        <v>190.9221</v>
+        <v>510.2621</v>
       </c>
       <c r="M11" t="n">
-        <v>520.843</v>
+        <v>830.0475</v>
       </c>
       <c r="N11" t="n">
-        <v>1550.3524</v>
+        <v>1909.3201</v>
       </c>
       <c r="O11" t="n">
-        <v>129.5161</v>
+        <v>151.162</v>
       </c>
       <c r="P11" t="n">
-        <v>205.6635</v>
+        <v>244.4517</v>
       </c>
       <c r="Q11" t="n">
-        <v>307.6687</v>
+        <v>373.1169</v>
       </c>
       <c r="R11" t="n">
-        <v>272.5885</v>
+        <v>434.3238</v>
       </c>
       <c r="S11" t="n">
-        <v>290.495</v>
+        <v>660.3662</v>
       </c>
       <c r="T11" t="n">
-        <v>553.6854</v>
+        <v>367.693</v>
       </c>
       <c r="U11" t="n">
-        <v>449.0479</v>
+        <v>826.062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.1113</v>
+        <v>812.1999102</v>
       </c>
       <c r="C12" t="n">
-        <v>209.2175</v>
+        <v>256.6091253</v>
       </c>
       <c r="D12" t="n">
-        <v>185.7708</v>
+        <v>487.0599612</v>
       </c>
       <c r="E12" t="n">
-        <v>1428.4708</v>
+        <v>1972.1826686</v>
       </c>
       <c r="F12" t="n">
-        <v>375.7384</v>
+        <v>85.683295</v>
       </c>
       <c r="G12" t="n">
-        <v>3637.1514</v>
+        <v>3805.5259254</v>
       </c>
       <c r="H12" t="n">
-        <v>632.5394</v>
+        <v>1051.8573986</v>
       </c>
       <c r="I12" t="n">
-        <v>13051.5034</v>
+        <v>17039.0876669</v>
       </c>
       <c r="J12" t="n">
-        <v>60.2479</v>
+        <v>82.81034940000001</v>
       </c>
       <c r="K12" t="n">
-        <v>1267.5144</v>
+        <v>2153.2545955</v>
       </c>
       <c r="L12" t="n">
-        <v>211.6302</v>
+        <v>525.351415</v>
       </c>
       <c r="M12" t="n">
-        <v>535.088</v>
+        <v>786.8964528</v>
       </c>
       <c r="N12" t="n">
-        <v>1581.7543</v>
+        <v>1958.9256854</v>
       </c>
       <c r="O12" t="n">
-        <v>131.3736</v>
+        <v>149.5132553</v>
       </c>
       <c r="P12" t="n">
-        <v>218.9109</v>
+        <v>245.564164</v>
       </c>
       <c r="Q12" t="n">
-        <v>310.5096</v>
+        <v>379.7458168</v>
       </c>
       <c r="R12" t="n">
-        <v>292.2915</v>
+        <v>431.1950261</v>
       </c>
       <c r="S12" t="n">
-        <v>310.065</v>
+        <v>643.6369645</v>
       </c>
       <c r="T12" t="n">
-        <v>562.037</v>
+        <v>352.0913616</v>
       </c>
       <c r="U12" t="n">
-        <v>470.0814</v>
+        <v>858.9842962</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.7893</v>
+        <v>798.0821999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>242.7382</v>
+        <v>265.2668</v>
       </c>
       <c r="D13" t="n">
-        <v>212.7591</v>
+        <v>519.165</v>
       </c>
       <c r="E13" t="n">
-        <v>1467.632</v>
+        <v>1985.8295</v>
       </c>
       <c r="F13" t="n">
-        <v>359.519</v>
+        <v>86.8262</v>
       </c>
       <c r="G13" t="n">
-        <v>4088.3267</v>
+        <v>3828.0051</v>
       </c>
       <c r="H13" t="n">
-        <v>679.0566</v>
+        <v>1094.6985</v>
       </c>
       <c r="I13" t="n">
-        <v>14413.3014</v>
+        <v>17014.5065866</v>
       </c>
       <c r="J13" t="n">
-        <v>59.8548</v>
+        <v>85.8618</v>
       </c>
       <c r="K13" t="n">
-        <v>1724.7782</v>
+        <v>1971.9353</v>
       </c>
       <c r="L13" t="n">
-        <v>248.5833</v>
+        <v>529.3419</v>
       </c>
       <c r="M13" t="n">
-        <v>647.4884</v>
+        <v>797.4965</v>
       </c>
       <c r="N13" t="n">
-        <v>1617.7726</v>
+        <v>1971.9496</v>
       </c>
       <c r="O13" t="n">
-        <v>134.9854</v>
+        <v>151.7059</v>
       </c>
       <c r="P13" t="n">
-        <v>230.3493</v>
+        <v>252.5631</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.6917</v>
+        <v>382.0015</v>
       </c>
       <c r="R13" t="n">
-        <v>298.4714</v>
+        <v>450.1163</v>
       </c>
       <c r="S13" t="n">
-        <v>286.5836</v>
+        <v>680.3468</v>
       </c>
       <c r="T13" t="n">
-        <v>611.5975</v>
+        <v>344.8497</v>
       </c>
       <c r="U13" t="n">
-        <v>505.3243</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>667.5203</v>
-      </c>
-      <c r="C14" t="n">
-        <v>265.0548</v>
-      </c>
-      <c r="D14" t="n">
-        <v>222.7996</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1541.5126</v>
-      </c>
-      <c r="F14" t="n">
-        <v>338.8566</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4262.1887</v>
-      </c>
-      <c r="H14" t="n">
-        <v>719.2776</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15236.3715</v>
-      </c>
-      <c r="J14" t="n">
-        <v>62.1331</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2010.2586</v>
-      </c>
-      <c r="L14" t="n">
-        <v>273.7129</v>
-      </c>
-      <c r="M14" t="n">
-        <v>711.845</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1653.3788</v>
-      </c>
-      <c r="O14" t="n">
-        <v>137.7422</v>
-      </c>
-      <c r="P14" t="n">
-        <v>243.7831</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>344.5578</v>
-      </c>
-      <c r="R14" t="n">
-        <v>330.6752</v>
-      </c>
-      <c r="S14" t="n">
-        <v>292.285</v>
-      </c>
-      <c r="T14" t="n">
-        <v>631.0219</v>
-      </c>
-      <c r="U14" t="n">
-        <v>527.7677</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>846.2153</v>
-      </c>
-      <c r="C15" t="n">
-        <v>304.3938</v>
-      </c>
-      <c r="D15" t="n">
-        <v>327.3117</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1566.988</v>
-      </c>
-      <c r="F15" t="n">
-        <v>294.8334</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5257.9395</v>
-      </c>
-      <c r="H15" t="n">
-        <v>770.0266</v>
-      </c>
-      <c r="I15" t="n">
-        <v>18108.4467</v>
-      </c>
-      <c r="J15" t="n">
-        <v>72.3342</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2921.8986</v>
-      </c>
-      <c r="L15" t="n">
-        <v>373.7341</v>
-      </c>
-      <c r="M15" t="n">
-        <v>890.8129</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1687.2273</v>
-      </c>
-      <c r="O15" t="n">
-        <v>146.9503</v>
-      </c>
-      <c r="P15" t="n">
-        <v>259.195</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>404.5408</v>
-      </c>
-      <c r="R15" t="n">
-        <v>387.7646</v>
-      </c>
-      <c r="S15" t="n">
-        <v>421.8913</v>
-      </c>
-      <c r="T15" t="n">
-        <v>636.45</v>
-      </c>
-      <c r="U15" t="n">
-        <v>537.9393</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>861.4299999999999</v>
-      </c>
-      <c r="C16" t="n">
-        <v>289.2857</v>
-      </c>
-      <c r="D16" t="n">
-        <v>336.2732</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1599.325</v>
-      </c>
-      <c r="F16" t="n">
-        <v>284.5982</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5243.1393</v>
-      </c>
-      <c r="H16" t="n">
-        <v>810.4272</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18277.7776</v>
-      </c>
-      <c r="J16" t="n">
-        <v>75.4145</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2921.1787</v>
-      </c>
-      <c r="L16" t="n">
-        <v>402.2447</v>
-      </c>
-      <c r="M16" t="n">
-        <v>888.569</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1727.326</v>
-      </c>
-      <c r="O16" t="n">
-        <v>145.519</v>
-      </c>
-      <c r="P16" t="n">
-        <v>269.1186</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>403.6541</v>
-      </c>
-      <c r="R16" t="n">
-        <v>408.0405</v>
-      </c>
-      <c r="S16" t="n">
-        <v>449.4463</v>
-      </c>
-      <c r="T16" t="n">
-        <v>596.4913</v>
-      </c>
-      <c r="U16" t="n">
-        <v>566.2963</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>854.3893</v>
-      </c>
-      <c r="C17" t="n">
-        <v>276.1231</v>
-      </c>
-      <c r="D17" t="n">
-        <v>349.8697</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1637.8019</v>
-      </c>
-      <c r="F17" t="n">
-        <v>269.9788</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5068.7033</v>
-      </c>
-      <c r="H17" t="n">
-        <v>841.6482</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18062.4914</v>
-      </c>
-      <c r="J17" t="n">
-        <v>75.1831</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2795.9982</v>
-      </c>
-      <c r="L17" t="n">
-        <v>417.3414</v>
-      </c>
-      <c r="M17" t="n">
-        <v>883.3214</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1736.468</v>
-      </c>
-      <c r="O17" t="n">
-        <v>149.0884</v>
-      </c>
-      <c r="P17" t="n">
-        <v>273.3293</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>396.0086</v>
-      </c>
-      <c r="R17" t="n">
-        <v>410.5829</v>
-      </c>
-      <c r="S17" t="n">
-        <v>474.0413</v>
-      </c>
-      <c r="T17" t="n">
-        <v>545.7799</v>
-      </c>
-      <c r="U17" t="n">
-        <v>606.8346</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>849.5076</v>
-      </c>
-      <c r="C18" t="n">
-        <v>269.7453</v>
-      </c>
-      <c r="D18" t="n">
-        <v>364.0667</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1672.5851</v>
-      </c>
-      <c r="F18" t="n">
-        <v>263.2208</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4893.8403</v>
-      </c>
-      <c r="H18" t="n">
-        <v>866.9874</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17888.0734</v>
-      </c>
-      <c r="J18" t="n">
-        <v>75.37569999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2724.7293</v>
-      </c>
-      <c r="L18" t="n">
-        <v>431.7379</v>
-      </c>
-      <c r="M18" t="n">
-        <v>874.9994</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1729.2418</v>
-      </c>
-      <c r="O18" t="n">
-        <v>150.7728</v>
-      </c>
-      <c r="P18" t="n">
-        <v>269.5962</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>387.6131</v>
-      </c>
-      <c r="R18" t="n">
-        <v>419.5578</v>
-      </c>
-      <c r="S18" t="n">
-        <v>488.4125</v>
-      </c>
-      <c r="T18" t="n">
-        <v>490.9177</v>
-      </c>
-      <c r="U18" t="n">
-        <v>665.1660000000001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>843.8919</v>
-      </c>
-      <c r="C19" t="n">
-        <v>265.9378</v>
-      </c>
-      <c r="D19" t="n">
-        <v>395.3927</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1725.5709</v>
-      </c>
-      <c r="F19" t="n">
-        <v>255.4087</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4635.4597</v>
-      </c>
-      <c r="H19" t="n">
-        <v>897.9367</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17643.8348</v>
-      </c>
-      <c r="J19" t="n">
-        <v>78.2342</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2643.2096</v>
-      </c>
-      <c r="L19" t="n">
-        <v>444.7774</v>
-      </c>
-      <c r="M19" t="n">
-        <v>842.7934</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1730.3682</v>
-      </c>
-      <c r="O19" t="n">
-        <v>152.2395</v>
-      </c>
-      <c r="P19" t="n">
-        <v>268.4986</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>376.9568</v>
-      </c>
-      <c r="R19" t="n">
-        <v>420.4109</v>
-      </c>
-      <c r="S19" t="n">
-        <v>522.5646</v>
-      </c>
-      <c r="T19" t="n">
-        <v>455.3768</v>
-      </c>
-      <c r="U19" t="n">
-        <v>688.8064000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>819.0015</v>
-      </c>
-      <c r="C20" t="n">
-        <v>269.8464</v>
-      </c>
-      <c r="D20" t="n">
-        <v>424.2577</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1817.4633</v>
-      </c>
-      <c r="F20" t="n">
-        <v>192.617</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4178.3095</v>
-      </c>
-      <c r="H20" t="n">
-        <v>912.3741</v>
-      </c>
-      <c r="I20" t="n">
-        <v>17258.1976</v>
-      </c>
-      <c r="J20" t="n">
-        <v>77.4059</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2710.8716</v>
-      </c>
-      <c r="L20" t="n">
-        <v>466.0072</v>
-      </c>
-      <c r="M20" t="n">
-        <v>823.2771</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1735.5819</v>
-      </c>
-      <c r="O20" t="n">
-        <v>146.5829</v>
-      </c>
-      <c r="P20" t="n">
-        <v>260.6323</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>369.1863</v>
-      </c>
-      <c r="R20" t="n">
-        <v>411.5301</v>
-      </c>
-      <c r="S20" t="n">
-        <v>529.5228</v>
-      </c>
-      <c r="T20" t="n">
-        <v>414.4315</v>
-      </c>
-      <c r="U20" t="n">
-        <v>699.2985</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>815.4941</v>
-      </c>
-      <c r="C21" t="n">
-        <v>265.2268</v>
-      </c>
-      <c r="D21" t="n">
-        <v>455.2578</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1989.8185</v>
-      </c>
-      <c r="F21" t="n">
-        <v>134.0931</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3832.0304</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1006.2298</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17161.7786</v>
-      </c>
-      <c r="J21" t="n">
-        <v>86.32389999999999</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2270.4989</v>
-      </c>
-      <c r="L21" t="n">
-        <v>510.2621</v>
-      </c>
-      <c r="M21" t="n">
-        <v>830.0475</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1909.3201</v>
-      </c>
-      <c r="O21" t="n">
-        <v>151.162</v>
-      </c>
-      <c r="P21" t="n">
-        <v>244.4517</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>373.1169</v>
-      </c>
-      <c r="R21" t="n">
-        <v>434.3238</v>
-      </c>
-      <c r="S21" t="n">
-        <v>660.3662</v>
-      </c>
-      <c r="T21" t="n">
-        <v>367.693</v>
-      </c>
-      <c r="U21" t="n">
-        <v>826.062</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>812.1999102</v>
-      </c>
-      <c r="C22" t="n">
-        <v>256.6091253</v>
-      </c>
-      <c r="D22" t="n">
-        <v>487.0599612</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1972.1826686</v>
-      </c>
-      <c r="F22" t="n">
-        <v>85.683295</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3805.5259254</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1051.8573986</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17039.0876669</v>
-      </c>
-      <c r="J22" t="n">
-        <v>82.81034940000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2153.2545955</v>
-      </c>
-      <c r="L22" t="n">
-        <v>525.351415</v>
-      </c>
-      <c r="M22" t="n">
-        <v>786.8964528</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1958.9256854</v>
-      </c>
-      <c r="O22" t="n">
-        <v>149.5132553</v>
-      </c>
-      <c r="P22" t="n">
-        <v>245.564164</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>379.7458168</v>
-      </c>
-      <c r="R22" t="n">
-        <v>431.1950261</v>
-      </c>
-      <c r="S22" t="n">
-        <v>643.6369645</v>
-      </c>
-      <c r="T22" t="n">
-        <v>352.0913616</v>
-      </c>
-      <c r="U22" t="n">
-        <v>858.9842962</v>
+        <v>818.465</v>
       </c>
     </row>
   </sheetData>
